--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Dziewiatowski.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Dziewiatowski.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,256 +463,969 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:39:13.84</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.48383078704</v>
       </c>
       <c r="B2" t="n">
-        <v>2153.8</v>
+        <v>2539.4</v>
       </c>
       <c r="C2" t="n">
-        <v>14.91</v>
+        <v>12.9</v>
       </c>
       <c r="D2" t="n">
-        <v>3.600713082722256</v>
+        <v>3.39716158594404</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:42:37.94</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687.52183541666</v>
       </c>
       <c r="B3" t="n">
-        <v>2357.9</v>
+        <v>5823</v>
       </c>
       <c r="C3" t="n">
-        <v>12.12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>3.479416472571238</v>
+        <v>3.675942284720286</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:53:34.44</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.53588518519</v>
       </c>
       <c r="B4" t="n">
-        <v>3014.4</v>
+        <v>7036.9</v>
       </c>
       <c r="C4" t="n">
-        <v>13.06</v>
+        <v>11.42</v>
       </c>
       <c r="D4" t="n">
-        <v>3.71085044315883</v>
+        <v>3.495549917221068</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:42:37.74</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45687.52183310186</v>
       </c>
       <c r="B5" t="n">
-        <v>2357.7</v>
+        <v>5822.8</v>
       </c>
       <c r="C5" t="n">
-        <v>9.42</v>
+        <v>9.4</v>
       </c>
       <c r="D5" t="n">
-        <v>3.348581280027119</v>
+        <v>3.465852158410208</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:53:34.24</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45687.5344662037</v>
       </c>
       <c r="B6" t="n">
-        <v>3014.2</v>
+        <v>6914.3</v>
       </c>
       <c r="C6" t="n">
-        <v>9.960000000000001</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>3.418490035193305</v>
+        <v>3.273808138711111</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:54:41.24</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45687.53588287037</v>
       </c>
       <c r="B7" t="n">
-        <v>3081.2</v>
+        <v>7036.7</v>
       </c>
       <c r="C7" t="n">
-        <v>8.84</v>
+        <v>8.51</v>
       </c>
       <c r="D7" t="n">
-        <v>3.04639026096889</v>
+        <v>3.267869438443866</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:31:39.84</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45684.59222037037</v>
       </c>
       <c r="B8" t="n">
+        <v>567.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.402552247047424</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59352476852</v>
+      </c>
+      <c r="B9" t="n">
+        <v>680.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.723067641258238</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59410462963</v>
+      </c>
+      <c r="B10" t="n">
+        <v>730.6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.463077562195914</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59107569444</v>
+      </c>
+      <c r="B11" t="n">
+        <v>468.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.562695315905979</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.5935224537</v>
+      </c>
+      <c r="B12" t="n">
+        <v>680.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.62039874281202</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59410347222</v>
+      </c>
+      <c r="B13" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.491053649357387</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59765208334</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1037.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.339186361857823</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60033495371</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1268.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.148051295961654</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.6030537037</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1503.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.442948818206787</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59764861111</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1036.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.825158732278006</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.60033148148</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1268.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.768171565873284</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.60429560185</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1611.1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.816675628934587</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.64698888889</v>
+      </c>
+      <c r="B20" t="n">
         <v>1014.8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C20" t="n">
         <v>12.86</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D20" t="n">
         <v>3.465544564383369</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:24.04</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.64958379629</v>
+      </c>
+      <c r="B21" t="n">
         <v>1239</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C21" t="n">
         <v>12.76</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D21" t="n">
         <v>3.530149357659476</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:52:06.34</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.66118449074</v>
+      </c>
+      <c r="B22" t="n">
         <v>2241.3</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C22" t="n">
         <v>12.77</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D22" t="n">
         <v>3.555028438568115</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:31:39.54</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.64698541666</v>
+      </c>
+      <c r="B23" t="n">
         <v>1014.5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C23" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D23" t="n">
         <v>3.199397053037372</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:23.74</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.64958032408</v>
+      </c>
+      <c r="B24" t="n">
         <v>1238.7</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C24" t="n">
         <v>8.92</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D24" t="n">
         <v>3.251099143709456</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:52:06.14</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.66118217593</v>
+      </c>
+      <c r="B25" t="n">
         <v>2241.1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C25" t="n">
         <v>9.9</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D25" t="n">
         <v>3.263054694448197</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.67135</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3119.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.462289776120867</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.67190324074</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3167.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.167921134403773</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.68490787037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4291</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.918576104300363</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.67134652778</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3119.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.776583075523376</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.67189976852</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3167.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.813431944165912</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.68056759259</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3916</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.817018202372959</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.47738796296</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1294.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.2442695243018</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47423055556</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.784382888248988</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.47554537037</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1135</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.598478368350439</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.4771287037</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1271.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.431943450655256</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.49757083334</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3038</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.775940418243407</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.4988613426</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3149.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.920772586550032</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.49908703704</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3169</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.852924142565047</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.49858472222</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3125.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.65952341897147</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45686.49885902778</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3149.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.772630606378829</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45686.49908587963</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3168.9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.803286824907576</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
